--- a/doc/实体彩票店.xlsx
+++ b/doc/实体彩票店.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="3340" yWindow="460" windowWidth="19380" windowHeight="12780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -1381,7 +1381,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1639,11 +1639,11 @@
       <c r="C22" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
